--- a/data files/Purchase Order/SGS HERBAL.xlsx
+++ b/data files/Purchase Order/SGS HERBAL.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BE4D86-4238-4B0E-9E15-8CAC830378CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ORDER-FORM" sheetId="2" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
   <si>
     <t>Order Form</t>
   </si>
@@ -186,13 +187,16 @@
     <t>K7 Conc. Floor Cleaner, 5 Liter</t>
   </si>
   <si>
-    <t>18/09/24</t>
+    <t>Ktriq Dish Wash, 500ml</t>
+  </si>
+  <si>
+    <t>K3 Glass Cleaner, 500ml</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -352,7 +356,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -377,7 +381,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -389,7 +392,7 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -413,14 +416,6 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,6 +426,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -453,7 +451,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Line 1"/>
+        <xdr:cNvPr id="2" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -494,7 +498,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Line 2"/>
+        <xdr:cNvPr id="3" name="Line 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -535,7 +545,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Line 3"/>
+        <xdr:cNvPr id="4" name="Line 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -565,9 +581,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -605,7 +621,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -677,7 +693,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -850,11 +866,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -864,7 +880,7 @@
     <col min="5" max="5" width="11.7109375" style="4" customWidth="1"/>
     <col min="6" max="6" width="17.28515625" style="4" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="4"/>
-    <col min="8" max="8" width="12.5703125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="4" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
@@ -938,9 +954,7 @@
       <c r="G9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="31" t="s">
-        <v>37</v>
-      </c>
+      <c r="H9" s="30"/>
     </row>
     <row r="10" spans="1:8" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -949,33 +963,30 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="15"/>
-      <c r="F10" s="16"/>
       <c r="G10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="21"/>
+    </row>
+    <row r="11" spans="1:8" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="16"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="17"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21" t="s">
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="20" t="s">
         <v>6</v>
       </c>
     </row>
@@ -983,315 +994,352 @@
       <c r="B13" s="10"/>
     </row>
     <row r="14" spans="1:8" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="23">
+      <c r="A14" s="22">
         <v>1</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="26" t="s">
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26">
+        <v>20</v>
+      </c>
+      <c r="H14" s="25" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="23">
+      <c r="A15" s="22">
         <v>2</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="26" t="s">
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26">
+        <v>60</v>
+      </c>
+      <c r="H15" s="25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="23">
+      <c r="A16" s="22">
         <v>3</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="26" t="s">
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26">
+        <v>12</v>
+      </c>
+      <c r="H16" s="25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="23">
+      <c r="A17" s="22">
         <v>4</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="27"/>
-      <c r="H17" s="30" t="s">
+      <c r="G17" s="26">
+        <v>4</v>
+      </c>
+      <c r="H17" s="29" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="23">
+      <c r="A18" s="22"/>
+      <c r="B18" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="26"/>
+      <c r="H18" s="29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="22">
         <v>5</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B19" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="23">
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="22">
         <v>6</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B20" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="26" t="s">
+      <c r="C20" s="24"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="23">
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="22">
         <v>7</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B21" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="23">
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="26">
+        <v>20</v>
+      </c>
+      <c r="H21" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="22">
         <v>8</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B22" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="23">
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="22">
         <v>9</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B23" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="23">
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="22">
         <v>10</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B24" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="23">
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="22">
         <v>11</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B25" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="26" t="s">
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="26">
+        <v>40</v>
+      </c>
+      <c r="H25" s="25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="23">
+    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="22">
         <v>12</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B26" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="26" t="s">
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="26">
+        <v>20</v>
+      </c>
+      <c r="H26" s="25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="23">
-        <v>13</v>
-      </c>
-      <c r="B26" s="24" t="s">
+    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="22">
+        <v>13</v>
+      </c>
+      <c r="B27" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="23">
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="26">
+        <v>12</v>
+      </c>
+      <c r="H27" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="22">
         <v>14</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B28" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="23">
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="22">
         <v>15</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B29" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="23">
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="22">
         <v>16</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B30" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="F29" s="29"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="23">
+      <c r="F30" s="28"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="22">
         <v>17</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B31" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="29"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="23">
+      <c r="F31" s="28"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="22"/>
+      <c r="B32" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="28"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="22">
         <v>18</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B33" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="29"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="23">
+      <c r="F33" s="28"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="22">
         <v>19</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B34" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="F32" s="29"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="23">
+      <c r="F34" s="28"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="22">
         <v>20</v>
       </c>
-      <c r="B33" s="24" t="s">
+      <c r="B35" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="F33" s="29"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
-      <c r="B34" s="34"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="32"/>
-    </row>
-    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="24" t="s">
+      <c r="F35" s="28"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="22"/>
+      <c r="B36" s="23"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="25"/>
+    </row>
+    <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A37" s="23" t="s">
         <v>7</v>
       </c>
     </row>
